--- a/output/fit_clients/fit_round_494.xlsx
+++ b/output/fit_clients/fit_round_494.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1628473860.522889</v>
+        <v>1632932106.660542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08273010024660599</v>
+        <v>0.07300788937348754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04484343140841401</v>
+        <v>0.04229627132740376</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>814236875.9389573</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1987455224.597868</v>
+        <v>2383427188.244174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1346013604811997</v>
+        <v>0.1135765847002537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03054761882388229</v>
+        <v>0.0351340373309175</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>993727650.438449</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3964122994.246727</v>
+        <v>3569698484.852838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1601416145885834</v>
+        <v>0.1417443716756657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02954330127063424</v>
+        <v>0.03021545777172941</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>178</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1982061508.775707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2577686445.041282</v>
+        <v>3369132183.256897</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09852825924934254</v>
+        <v>0.07324611237601528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04872836030297053</v>
+        <v>0.0409498287145562</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1288843320.309092</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2009732415.366574</v>
+        <v>1952562803.461618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1209107499068372</v>
+        <v>0.1343238796771671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05309337780452008</v>
+        <v>0.05441744020402491</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1004866236.246468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2334547261.027013</v>
+        <v>2356142940.427916</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06193586307214582</v>
+        <v>0.07074552411612345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04656433123192476</v>
+        <v>0.03922245402602471</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>156</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1167273659.545161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3591712504.753898</v>
+        <v>2759714103.915877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1689392774659884</v>
+        <v>0.2033725345355083</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02875660061098289</v>
+        <v>0.02213970446962103</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1795856370.403161</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1730431666.686753</v>
+        <v>2062021663.655787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1456913644922194</v>
+        <v>0.1538564619682685</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02835914038231438</v>
+        <v>0.03136828940271489</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>865215897.3795465</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5875467144.185812</v>
+        <v>4613357032.034116</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1924988206983961</v>
+        <v>0.2058450319725501</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05138924778289716</v>
+        <v>0.03996370151680039</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>208</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2937733739.199018</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3179626209.258998</v>
+        <v>3560814494.90402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1369542598822358</v>
+        <v>0.1712810634793515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03201060887648504</v>
+        <v>0.03399458743122481</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>204</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1589813060.093923</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2121721374.126009</v>
+        <v>2899524458.11586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1203127814996782</v>
+        <v>0.1467287886254883</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04239176618186533</v>
+        <v>0.05400597884456924</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1060860624.6721</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3398949040.339287</v>
+        <v>4838412928.131102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08969954915117656</v>
+        <v>0.07284132218787551</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02484972233991606</v>
+        <v>0.02093072835236722</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>166</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1699474605.649097</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3196650915.745311</v>
+        <v>3100986763.993107</v>
       </c>
       <c r="F14" t="n">
-        <v>0.113844398894303</v>
+        <v>0.151438393414958</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02850114077532891</v>
+        <v>0.04431899574140993</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>159</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1598325478.092468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1564665640.24566</v>
+        <v>1128594229.399341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09571876953239189</v>
+        <v>0.06680353923985906</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03294504891331535</v>
+        <v>0.03613533019205628</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>782332920.3093934</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1784580945.297252</v>
+        <v>1899232890.309686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07686715927498483</v>
+        <v>0.08224911171301023</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04023769858949131</v>
+        <v>0.04189870352876506</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>892290567.3980052</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5137502585.040564</v>
+        <v>5122011810.295353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1248351194213813</v>
+        <v>0.1068799541081469</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04187704925877936</v>
+        <v>0.04161443958807615</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>148</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2568751270.929157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3256428268.257363</v>
+        <v>3276460679.42313</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1691940545886359</v>
+        <v>0.1168860098706795</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02673744807020044</v>
+        <v>0.03425094862101866</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>162</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1628214145.8199</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>866491612.8041111</v>
+        <v>1253496562.957474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1205032731288723</v>
+        <v>0.1509309441372022</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01713800615070268</v>
+        <v>0.02729499093090294</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>433245803.168905</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2094653324.444948</v>
+        <v>1732022505.776119</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1547650096538164</v>
+        <v>0.1454324156684505</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02849356758634354</v>
+        <v>0.02617663412223939</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1047326678.519119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1807715551.253736</v>
+        <v>2030295979.276695</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06586630733910455</v>
+        <v>0.06306294923317446</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03304606207466004</v>
+        <v>0.0313148667872119</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>903857829.9728036</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3313067451.90126</v>
+        <v>2534131496.793613</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1067194579498688</v>
+        <v>0.120180477272208</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03719035389679123</v>
+        <v>0.04031167290336487</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1656533768.757479</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1224516001.535821</v>
+        <v>1400810511.903934</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1664101653057585</v>
+        <v>0.1205187739510943</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04173123495259418</v>
+        <v>0.03628628512637643</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>612258033.1344235</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3911858455.071106</v>
+        <v>4062625900.950096</v>
       </c>
       <c r="F24" t="n">
-        <v>0.149560483384922</v>
+        <v>0.09949878337847889</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02350089366855249</v>
+        <v>0.02937339236469612</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1955929201.479721</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1272138759.672854</v>
+        <v>1196171274.374355</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1163088304180386</v>
+        <v>0.08557594385791516</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02110251193035745</v>
+        <v>0.02202034364129104</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>636069381.2343078</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1075373639.718528</v>
+        <v>931721517.7341264</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029199418424426</v>
+        <v>0.08091584246184143</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03703208257927512</v>
+        <v>0.02598250049894498</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>537686810.4629238</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4605865748.481924</v>
+        <v>3617117667.643884</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1011139143326173</v>
+        <v>0.1355465797792416</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02283650600852394</v>
+        <v>0.01641857873623548</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2302932854.303833</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3216155964.484624</v>
+        <v>3193882122.735918</v>
       </c>
       <c r="F28" t="n">
-        <v>0.104797475865195</v>
+        <v>0.1471328602549203</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03077344236769721</v>
+        <v>0.04564954383118812</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>159</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1608078012.283069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4174587615.566155</v>
+        <v>3733413746.41549</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1073605526667648</v>
+        <v>0.1010824024228052</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03947508203976043</v>
+        <v>0.04082128259283458</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>218</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2087293812.535189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1557407278.348206</v>
+        <v>2091169388.005491</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1143279007831613</v>
+        <v>0.1137517737906958</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0241828162537075</v>
+        <v>0.03106320372850084</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>778703626.2212503</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1267114495.909535</v>
+        <v>1412109900.982567</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09063325496275798</v>
+        <v>0.06880302333482945</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04361375366246435</v>
+        <v>0.03285467614143184</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>633557183.6435845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1163374568.620567</v>
+        <v>1364241444.626265</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07479323156051507</v>
+        <v>0.09003170095236987</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02991348539128397</v>
+        <v>0.03652737373148798</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>581687282.9706597</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2068877592.25168</v>
+        <v>2024055704.836406</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1748711356045456</v>
+        <v>0.2067221507664901</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04606762038531056</v>
+        <v>0.0391841303844</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>152</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1034438871.09356</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1333542662.848539</v>
+        <v>1066221786.300152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08935450531422497</v>
+        <v>0.1072814132111869</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0207956074848069</v>
+        <v>0.02725553988037112</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>666771314.5846536</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1321053574.352445</v>
+        <v>1203968830.507511</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08450230035103203</v>
+        <v>0.09790954833820137</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03716165576487669</v>
+        <v>0.04394152137714443</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>660526735.3838062</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2202950007.357296</v>
+        <v>2741182697.572587</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1582516996823515</v>
+        <v>0.1515417840636011</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02805170290477635</v>
+        <v>0.0264984675393353</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1101475049.477495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2524306779.37472</v>
+        <v>2387311898.163239</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1083012479470674</v>
+        <v>0.08248086048972277</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02766758038645336</v>
+        <v>0.02794941671553935</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1262153489.119428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1404042770.538753</v>
+        <v>1649725851.240228</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1016466078046826</v>
+        <v>0.110453443173124</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0310031201385078</v>
+        <v>0.03175353690830413</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>702021448.1134391</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379850266.679534</v>
+        <v>1529163229.053769</v>
       </c>
       <c r="F39" t="n">
-        <v>0.178672468035513</v>
+        <v>0.1322260495258867</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03134558854626467</v>
+        <v>0.02983488219640055</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>689925222.0282323</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1423497843.429378</v>
+        <v>1600614166.773085</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1204166070704958</v>
+        <v>0.1577068622735564</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05514151657907407</v>
+        <v>0.049710006994914</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>711748907.093153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2043878689.511712</v>
+        <v>2036210805.156247</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1457785016355254</v>
+        <v>0.1200898046757839</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04457180555972454</v>
+        <v>0.03407006631080581</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1021939414.686767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3167866876.328641</v>
+        <v>3961139559.559287</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1169781324461208</v>
+        <v>0.1184041391286613</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03983068829037532</v>
+        <v>0.0282106142018767</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1583933410.186255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2333391766.841669</v>
+        <v>2776209794.904072</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1935978800518937</v>
+        <v>0.1615975964317911</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02522141880890936</v>
+        <v>0.02482564166550505</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>170</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1166695948.865048</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2069333187.401533</v>
+        <v>2244662399.929508</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07163349966783186</v>
+        <v>0.09668871791120549</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583204382504269</v>
+        <v>0.02626646361580857</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1034666713.904295</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1731131907.203581</v>
+        <v>2503990640.647365</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1445083673694209</v>
+        <v>0.1429494420685742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03401098599535803</v>
+        <v>0.05627452417213306</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>865565917.4337895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4001902573.424407</v>
+        <v>4668679706.460581</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1766546623873029</v>
+        <v>0.1303808770067431</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05204489380748296</v>
+        <v>0.04465885119038455</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>176</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2000951256.363578</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4130235065.35641</v>
+        <v>3491965808.233266</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1555476048679888</v>
+        <v>0.1831043148949602</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05577609459949351</v>
+        <v>0.05134174405812544</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>135</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2065117539.205313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2871788344.277944</v>
+        <v>4432530152.910221</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07253486213941476</v>
+        <v>0.0764337052356302</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03064975454877959</v>
+        <v>0.03461968298627083</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>161</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1435894272.136147</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1344991175.532633</v>
+        <v>1703117942.464123</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1855382345431376</v>
+        <v>0.1794409296984897</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04313077275924359</v>
+        <v>0.03044830888294447</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>672495643.9013662</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4047989217.474279</v>
+        <v>3922873124.908614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1321833536767487</v>
+        <v>0.1542757071048807</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05355400759640885</v>
+        <v>0.05305560134140098</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>168</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2023994594.021935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047509433.894316</v>
+        <v>1413117129.565214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1755754098023275</v>
+        <v>0.1399041640498897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04923388742424017</v>
+        <v>0.04992033713613546</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>523754793.2362159</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3553006309.508623</v>
+        <v>4290469187.082365</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09806821956231189</v>
+        <v>0.1140004558629467</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05305626250461479</v>
+        <v>0.04953222470069132</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>203</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1776503237.561936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3431504417.696364</v>
+        <v>3385841211.174685</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1279176084592585</v>
+        <v>0.1977579790309705</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02764986693324114</v>
+        <v>0.02480950151756732</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1715752211.473344</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4315684516.127677</v>
+        <v>4375501030.269604</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1583831722635281</v>
+        <v>0.1436668924649813</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04890448521762396</v>
+        <v>0.04096269286254403</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>161</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2157842346.956709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4704423805.222472</v>
+        <v>4931218498.437246</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1872960832199577</v>
+        <v>0.1533597495273959</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02598152150798511</v>
+        <v>0.021920427746791</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2352211908.608446</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1310861514.849052</v>
+        <v>1854412109.434927</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1378448290139703</v>
+        <v>0.1133463716505572</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04580920318274392</v>
+        <v>0.04452593224156241</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>655430827.7391175</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3803193788.138472</v>
+        <v>3332691359.77825</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1660400462490993</v>
+        <v>0.1777325408702278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02623389474367622</v>
+        <v>0.01748263436271098</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>157</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1901596965.934627</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1603363363.374054</v>
+        <v>1356043219.167596</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1668504279693037</v>
+        <v>0.2022695752617031</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02853460859814368</v>
+        <v>0.03276201829152695</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>801681703.4268143</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5276452705.782328</v>
+        <v>3920842412.052863</v>
       </c>
       <c r="F59" t="n">
-        <v>0.107288682650119</v>
+        <v>0.1132018457613166</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0337643356563275</v>
+        <v>0.04737672891655118</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2638226267.296275</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3322710955.363904</v>
+        <v>2488850146.142757</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1656555163874732</v>
+        <v>0.1257428208443995</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02590336210976308</v>
+        <v>0.0327574695465214</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1661355581.908853</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3174375491.025719</v>
+        <v>3266732014.845552</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759519553687816</v>
+        <v>0.1722952416718165</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02026210070111254</v>
+        <v>0.03305541151969317</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>170</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1587187709.558743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2041078313.608054</v>
+        <v>1474513824.803418</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1916764667368356</v>
+        <v>0.1649016344362283</v>
       </c>
       <c r="G62" t="n">
-        <v>0.033563461302812</v>
+        <v>0.03612957379134638</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1020539221.054486</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4265088373.992885</v>
+        <v>3546014144.301712</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07564779536634422</v>
+        <v>0.08414746114828912</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02966987388878964</v>
+        <v>0.0404515653237754</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>141</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2132544237.563157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3442590222.32935</v>
+        <v>3779987752.026398</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1658460997788227</v>
+        <v>0.1702949640011629</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03337672183176149</v>
+        <v>0.03093031057693221</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>154</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1721295107.843054</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4003703920.530614</v>
+        <v>5716928172.078841</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1507599268463267</v>
+        <v>0.1214373834160879</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0254190499552845</v>
+        <v>0.03007671725742121</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>177</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2001851978.643342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3855307632.565733</v>
+        <v>4463075867.472382</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1417234304284436</v>
+        <v>0.131556059083348</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03908827437289</v>
+        <v>0.04850936826616101</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1927653782.178832</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2815149149.022687</v>
+        <v>2996927186.645941</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09612467626369882</v>
+        <v>0.06477711464136358</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04812136676835799</v>
+        <v>0.04318088893814902</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>159</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1407574608.417774</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5908093970.366982</v>
+        <v>5019768181.367904</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1073658886067089</v>
+        <v>0.1113253521470502</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03136268285456046</v>
+        <v>0.03962732725925381</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>158</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2954047096.618287</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2485498914.428598</v>
+        <v>2045581685.400297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1685365142898716</v>
+        <v>0.1810759157190584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05114095758346894</v>
+        <v>0.04446192047469257</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1242749524.965357</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2912217527.976595</v>
+        <v>2893182061.082896</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09827770473819362</v>
+        <v>0.09212017334363684</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04900169613728218</v>
+        <v>0.0399221284170821</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1456108735.266817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5326449829.864023</v>
+        <v>4173091575.609924</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1228804350261999</v>
+        <v>0.155673383102034</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02090709636609386</v>
+        <v>0.03264268891312532</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>180</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2663225045.017797</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1774065738.557688</v>
+        <v>2180711678.329046</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1012745068331363</v>
+        <v>0.07808935828019802</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04606579553537025</v>
+        <v>0.04610700058125717</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>887032852.1019613</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2714610274.493812</v>
+        <v>2513519788.546672</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09902964705925223</v>
+        <v>0.07645934145709142</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03447416187370207</v>
+        <v>0.03184198463897318</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>186</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1357305159.36957</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3483742314.308712</v>
+        <v>3596683629.756994</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1262354690002671</v>
+        <v>0.1392232661366854</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03091527734692705</v>
+        <v>0.0338501607721902</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>168</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1741871180.719978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1644739169.62069</v>
+        <v>2335723065.671267</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1587716016391039</v>
+        <v>0.1575402956262215</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02353024254603914</v>
+        <v>0.03719666547094696</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>822369582.3832951</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3398317583.796773</v>
+        <v>3761774279.05371</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09730799556299993</v>
+        <v>0.07741764092857767</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02351794419868488</v>
+        <v>0.03408701161709859</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1699158751.384439</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1889183397.605477</v>
+        <v>1700569270.130207</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1623850671014045</v>
+        <v>0.1865420075596333</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0302060674287484</v>
+        <v>0.0295821224663234</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>944591744.0176169</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3837061273.635513</v>
+        <v>4748431871.704309</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1363042502247579</v>
+        <v>0.1316526307334526</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03824502339763809</v>
+        <v>0.03462351177188499</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>172</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1918530614.213102</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1163550726.505159</v>
+        <v>1199248625.303118</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1705484122460953</v>
+        <v>0.140807747898499</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03466977670177236</v>
+        <v>0.02869301548381043</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>581775338.6015415</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3664779190.0182</v>
+        <v>3717729011.678579</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08310296265486068</v>
+        <v>0.07418967164162293</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03227744585740235</v>
+        <v>0.03493507892728968</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1832389577.843907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3419003571.279015</v>
+        <v>5040029206.492602</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1263916521706741</v>
+        <v>0.1010351520527262</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02706030546261455</v>
+        <v>0.03074661887522915</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1709501727.313849</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4800442417.58721</v>
+        <v>5234579354.381144</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1954873783298663</v>
+        <v>0.1611042975508216</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02350807721937224</v>
+        <v>0.01778453872673411</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2400221203.916033</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2433642992.626173</v>
+        <v>1686576367.339552</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1056971145248567</v>
+        <v>0.09558221201944445</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03209020172657893</v>
+        <v>0.03042825645195452</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1216821535.637263</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2099684908.641799</v>
+        <v>1619709118.900192</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1136717639082199</v>
+        <v>0.1026958663891614</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03377493688867505</v>
+        <v>0.04219122309050361</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1049842444.723662</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2401744285.06853</v>
+        <v>3301151969.041736</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1388356243725001</v>
+        <v>0.1780524679667098</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0565947161690277</v>
+        <v>0.04229800006697904</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>185</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1200872136.649326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2664567656.912866</v>
+        <v>2356335426.53296</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1271697204285058</v>
+        <v>0.1056903680265987</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02574023133363723</v>
+        <v>0.0253518320318786</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1332283948.508433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1009969541.167092</v>
+        <v>1273993963.012161</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1740720734880156</v>
+        <v>0.1830668315308693</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04353811325896544</v>
+        <v>0.03386842022877797</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>504984777.4804749</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2315899814.567974</v>
+        <v>2275706619.443204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1646315093155787</v>
+        <v>0.1688424225496808</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03762864048132276</v>
+        <v>0.03909633809199102</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>196</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1157949870.143379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3447700843.256297</v>
+        <v>2655374525.568238</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505347918635713</v>
+        <v>0.1018342786206703</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03198742667347213</v>
+        <v>0.02703548340801418</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>168</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1723850426.936139</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1887710769.092079</v>
+        <v>1794932589.068743</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1062244662727471</v>
+        <v>0.1289308922205677</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03649636191043595</v>
+        <v>0.05125233204461726</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>943855434.2610412</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1915353709.92807</v>
+        <v>1639529693.674107</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1700096793841399</v>
+        <v>0.1923057254520912</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05609333263555459</v>
+        <v>0.04034640517456942</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>957676838.5384344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1910034995.667763</v>
+        <v>2973900009.553984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07679742650226484</v>
+        <v>0.08600931829424055</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04221212765545848</v>
+        <v>0.03585673172916481</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>955017437.2473142</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3833930597.978409</v>
+        <v>3080444935.748745</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09942411423958285</v>
+        <v>0.128274809814612</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04505723830021777</v>
+        <v>0.03984325673204264</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1916965310.376789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2192163589.613697</v>
+        <v>1696110504.346373</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1568609952209023</v>
+        <v>0.1179195689892316</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03920205425342828</v>
+        <v>0.02825609708519792</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1096081818.203108</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2954166958.522552</v>
+        <v>2546254072.110052</v>
       </c>
       <c r="F95" t="n">
-        <v>0.125026894792168</v>
+        <v>0.1120168556922766</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04271907061542291</v>
+        <v>0.03492644147327831</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>119</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1477083482.337761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2297761464.078399</v>
+        <v>1686404490.490328</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0873843806034031</v>
+        <v>0.1340261515934485</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03034071142349011</v>
+        <v>0.02870961543329751</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1148880687.258437</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4582950346.914109</v>
+        <v>3571874935.924161</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1103703967332176</v>
+        <v>0.1600954243406221</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02237769595114637</v>
+        <v>0.02083185445738549</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2291475276.736714</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3902371599.317828</v>
+        <v>3266094734.684939</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1114658096218258</v>
+        <v>0.1209154786632099</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03161461254199352</v>
+        <v>0.02963602100007268</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1951185845.559763</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2709579362.941316</v>
+        <v>2699560353.543777</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09686365734819129</v>
+        <v>0.1040189920927944</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02637628823020303</v>
+        <v>0.02241936027452801</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1354789646.409374</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3866465058.921322</v>
+        <v>4267590508.190721</v>
       </c>
       <c r="F100" t="n">
-        <v>0.159172313856217</v>
+        <v>0.1496806426234012</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02683054546268782</v>
+        <v>0.02197232832266203</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1933232589.484009</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2705234040.363</v>
+        <v>2379166450.686785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2227904662012024</v>
+        <v>0.202467010520533</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04906800393573309</v>
+        <v>0.04386867397063911</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>200</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1352617070.312074</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_494.xlsx
+++ b/output/fit_clients/fit_round_494.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1632932106.660542</v>
+        <v>1868174503.184905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07300788937348754</v>
+        <v>0.07645577416395419</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04229627132740376</v>
+        <v>0.03519867529032986</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2383427188.244174</v>
+        <v>2640587041.352948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135765847002537</v>
+        <v>0.1758477583944245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0351340373309175</v>
+        <v>0.03384988416956138</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3569698484.852838</v>
+        <v>4040697488.691877</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1417443716756657</v>
+        <v>0.1302894198196741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03021545777172941</v>
+        <v>0.03408844609584152</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3369132183.256897</v>
+        <v>4262020259.942777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07324611237601528</v>
+        <v>0.07852383286724274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0409498287145562</v>
+        <v>0.03399966459335462</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1952562803.461618</v>
+        <v>2687348885.407771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1343238796771671</v>
+        <v>0.1249631135412888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05441744020402491</v>
+        <v>0.05409800593943542</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2356142940.427916</v>
+        <v>2687709631.482421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07074552411612345</v>
+        <v>0.09255809931376495</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03922245402602471</v>
+        <v>0.04912234518628733</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2759714103.915877</v>
+        <v>2781810557.627989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2033725345355083</v>
+        <v>0.2144102806507635</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02213970446962103</v>
+        <v>0.03117374619013907</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2062021663.655787</v>
+        <v>1764937648.366426</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1538564619682685</v>
+        <v>0.1440421234933286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03136828940271489</v>
+        <v>0.03508238418385177</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4613357032.034116</v>
+        <v>5109274163.061163</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2058450319725501</v>
+        <v>0.164040509147491</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03996370151680039</v>
+        <v>0.04835931136093177</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3560814494.90402</v>
+        <v>3988109650.417185</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1712810634793515</v>
+        <v>0.1571675878138861</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03399458743122481</v>
+        <v>0.03361263395769121</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2899524458.11586</v>
+        <v>3046307792.498769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467287886254883</v>
+        <v>0.1650269974473936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05400597884456924</v>
+        <v>0.04880881266694766</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4838412928.131102</v>
+        <v>3366240059.49536</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07284132218787551</v>
+        <v>0.06479077102252782</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02093072835236722</v>
+        <v>0.0250299600613183</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3100986763.993107</v>
+        <v>3779576799.819431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.151438393414958</v>
+        <v>0.1686691693962172</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04431899574140993</v>
+        <v>0.03733802008820438</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1128594229.399341</v>
+        <v>1449738617.001148</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06680353923985906</v>
+        <v>0.08366936744514118</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03613533019205628</v>
+        <v>0.031932597560632</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1899232890.309686</v>
+        <v>2854173991.764648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08224911171301023</v>
+        <v>0.08142202821068185</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04189870352876506</v>
+        <v>0.03427688708833779</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5122011810.295353</v>
+        <v>4561544882.045294</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1068799541081469</v>
+        <v>0.1657401790329409</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04161443958807615</v>
+        <v>0.04628401638585389</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3276460679.42313</v>
+        <v>2969674343.338131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1168860098706795</v>
+        <v>0.1824657651871725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03425094862101866</v>
+        <v>0.03366675135811828</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1253496562.957474</v>
+        <v>913311599.1331626</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1509309441372022</v>
+        <v>0.1689350995328607</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02729499093090294</v>
+        <v>0.02456546014409423</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1732022505.776119</v>
+        <v>1689774941.597565</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1454324156684505</v>
+        <v>0.1427426564712646</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02617663412223939</v>
+        <v>0.02030570997799715</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2030295979.276695</v>
+        <v>2292350366.111938</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06306294923317446</v>
+        <v>0.06910604751788339</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0313148667872119</v>
+        <v>0.04466205514302596</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2534131496.793613</v>
+        <v>2716496716.444253</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120180477272208</v>
+        <v>0.1448107920150849</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04031167290336487</v>
+        <v>0.05340981212213328</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1400810511.903934</v>
+        <v>1279805283.546701</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1205187739510943</v>
+        <v>0.1684481656982337</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03628628512637643</v>
+        <v>0.03771721234924519</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4062625900.950096</v>
+        <v>3709222319.32885</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09949878337847889</v>
+        <v>0.09160114255733565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02937339236469612</v>
+        <v>0.03306015444396783</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1196171274.374355</v>
+        <v>1466761176.975471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08557594385791516</v>
+        <v>0.09307182286234766</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02202034364129104</v>
+        <v>0.03087008481435972</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>931721517.7341264</v>
+        <v>1232888521.382256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08091584246184143</v>
+        <v>0.08688503791187677</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02598250049894498</v>
+        <v>0.02922426446447188</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3617117667.643884</v>
+        <v>4294267214.436106</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1355465797792416</v>
+        <v>0.1250252519905926</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01641857873623548</v>
+        <v>0.02019087209424986</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3193882122.735918</v>
+        <v>3400422223.59095</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1471328602549203</v>
+        <v>0.09797593096133544</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04564954383118812</v>
+        <v>0.04555386073845941</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3733413746.41549</v>
+        <v>4721616662.719525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1010824024228052</v>
+        <v>0.1477131341631589</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04082128259283458</v>
+        <v>0.03652159045599203</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2091169388.005491</v>
+        <v>2349257351.063033</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1137517737906958</v>
+        <v>0.1133127591841747</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03106320372850084</v>
+        <v>0.0268525663257435</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1412109900.982567</v>
+        <v>1414901224.645457</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06880302333482945</v>
+        <v>0.1049166687966504</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03285467614143184</v>
+        <v>0.04654786612873266</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1364241444.626265</v>
+        <v>1545785582.635917</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09003170095236987</v>
+        <v>0.115353502517326</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03652737373148798</v>
+        <v>0.02526710481755964</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2024055704.836406</v>
+        <v>2599929724.398638</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2067221507664901</v>
+        <v>0.1624334099322667</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0391841303844</v>
+        <v>0.03911596860800696</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1066221786.300152</v>
+        <v>970818799.0727572</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1072814132111869</v>
+        <v>0.0928510206711244</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02725553988037112</v>
+        <v>0.02706219262015878</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1203968830.507511</v>
+        <v>1077871397.619511</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09790954833820137</v>
+        <v>0.08326646484796527</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04394152137714443</v>
+        <v>0.04249748021889436</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2741182697.572587</v>
+        <v>3137786365.499008</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1515417840636011</v>
+        <v>0.128991750445949</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0264984675393353</v>
+        <v>0.02771793093140494</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2387311898.163239</v>
+        <v>2364183789.069761</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08248086048972277</v>
+        <v>0.09359246917287217</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02794941671553935</v>
+        <v>0.04201795979594589</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1649725851.240228</v>
+        <v>1639381195.335946</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110453443173124</v>
+        <v>0.09024709615499057</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03175353690830413</v>
+        <v>0.03316773182749031</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1529163229.053769</v>
+        <v>1597500561.399454</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1322260495258867</v>
+        <v>0.1286836978446752</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02983488219640055</v>
+        <v>0.03143712019988001</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1600614166.773085</v>
+        <v>1335290916.933366</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1577068622735564</v>
+        <v>0.1223353802172382</v>
       </c>
       <c r="G40" t="n">
-        <v>0.049710006994914</v>
+        <v>0.05366926288992568</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2036210805.156247</v>
+        <v>2232634105.231227</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1200898046757839</v>
+        <v>0.1514964182172322</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03407006631080581</v>
+        <v>0.02976430219291836</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3961139559.559287</v>
+        <v>2662924571.893791</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1184041391286613</v>
+        <v>0.08403082575599777</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0282106142018767</v>
+        <v>0.04573396415558981</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2776209794.904072</v>
+        <v>2871064475.115889</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1615975964317911</v>
+        <v>0.1737252175560969</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02482564166550505</v>
+        <v>0.01661678099638937</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2244662399.929508</v>
+        <v>1723168865.735358</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09668871791120549</v>
+        <v>0.0783632439268475</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02626646361580857</v>
+        <v>0.03543670594474896</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2503990640.647365</v>
+        <v>2515064170.096646</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1429494420685742</v>
+        <v>0.1565725655953291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05627452417213306</v>
+        <v>0.05437711947301192</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4668679706.460581</v>
+        <v>4877565914.118641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1303808770067431</v>
+        <v>0.1286627195190638</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04465885119038455</v>
+        <v>0.04695707600987714</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3491965808.233266</v>
+        <v>3370049625.370131</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1831043148949602</v>
+        <v>0.1815212828042603</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05134174405812544</v>
+        <v>0.03892510375865162</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4432530152.910221</v>
+        <v>4004552137.721694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0764337052356302</v>
+        <v>0.1027959838964527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03461968298627083</v>
+        <v>0.03489594304582778</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703117942.464123</v>
+        <v>1958203272.832501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1794409296984897</v>
+        <v>0.1769527686151064</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03044830888294447</v>
+        <v>0.03862013212928944</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3922873124.908614</v>
+        <v>3213353311.586162</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1542757071048807</v>
+        <v>0.1594447366231548</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05305560134140098</v>
+        <v>0.05167207408395275</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1413117129.565214</v>
+        <v>1156817499.946627</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1399041640498897</v>
+        <v>0.1696016995076468</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04992033713613546</v>
+        <v>0.04455831450693796</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4290469187.082365</v>
+        <v>3843092604.229971</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1140004558629467</v>
+        <v>0.1269219309367811</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04953222470069132</v>
+        <v>0.05246650278385361</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3385841211.174685</v>
+        <v>3275741083.145563</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1977579790309705</v>
+        <v>0.1608015142627101</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02480950151756732</v>
+        <v>0.02784840715861534</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4375501030.269604</v>
+        <v>2998102166.36808</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1436668924649813</v>
+        <v>0.1276255379377543</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04096269286254403</v>
+        <v>0.04027820325986411</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4931218498.437246</v>
+        <v>3049982261.307532</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1533597495273959</v>
+        <v>0.2065638102392553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.021920427746791</v>
+        <v>0.02682930150111309</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1854412109.434927</v>
+        <v>1757793477.999784</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1133463716505572</v>
+        <v>0.1076584718361072</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04452593224156241</v>
+        <v>0.03885663494501139</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3332691359.77825</v>
+        <v>3568581567.128313</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1777325408702278</v>
+        <v>0.1601517228653311</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01748263436271098</v>
+        <v>0.0261837557510069</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1356043219.167596</v>
+        <v>1719225917.094469</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2022695752617031</v>
+        <v>0.2032516833296017</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03276201829152695</v>
+        <v>0.03102357985202645</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3920842412.052863</v>
+        <v>4904304102.155173</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1132018457613166</v>
+        <v>0.08032839504870815</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04737672891655118</v>
+        <v>0.03826424519119495</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2488850146.142757</v>
+        <v>2352422114.853168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1257428208443995</v>
+        <v>0.1715681080570847</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0327574695465214</v>
+        <v>0.03022262524432892</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3266732014.845552</v>
+        <v>3098363278.217077</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1722952416718165</v>
+        <v>0.1118765140167756</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03305541151969317</v>
+        <v>0.0317693053534698</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1474513824.803418</v>
+        <v>2071656596.032894</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1649016344362283</v>
+        <v>0.1724299744780084</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03612957379134638</v>
+        <v>0.03673162991832045</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3546014144.301712</v>
+        <v>4324033901.398249</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08414746114828912</v>
+        <v>0.09316503233436334</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0404515653237754</v>
+        <v>0.03128176945307411</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3779987752.026398</v>
+        <v>4081902719.376903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1702949640011629</v>
+        <v>0.15984758814632</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03093031057693221</v>
+        <v>0.0301191075246132</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5716928172.078841</v>
+        <v>4725468695.382762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1214373834160879</v>
+        <v>0.1723212999722316</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03007671725742121</v>
+        <v>0.02461042547591067</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4463075867.472382</v>
+        <v>3949878822.302275</v>
       </c>
       <c r="F66" t="n">
-        <v>0.131556059083348</v>
+        <v>0.1191469720399306</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04850936826616101</v>
+        <v>0.0424865006874727</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2996927186.645941</v>
+        <v>2938104855.835102</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06477711464136358</v>
+        <v>0.07896895275733722</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04318088893814902</v>
+        <v>0.05086244366487833</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5019768181.367904</v>
+        <v>4947486768.61263</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1113253521470502</v>
+        <v>0.1369015868401896</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03962732725925381</v>
+        <v>0.04624705804114123</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2045581685.400297</v>
+        <v>1608709649.800205</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1810759157190584</v>
+        <v>0.1426642393082723</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04446192047469257</v>
+        <v>0.04397310615113626</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2893182061.082896</v>
+        <v>2540137301.916525</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09212017334363684</v>
+        <v>0.09292866602252216</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0399221284170821</v>
+        <v>0.03945436956130479</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4173091575.609924</v>
+        <v>5117688728.09798</v>
       </c>
       <c r="F71" t="n">
-        <v>0.155673383102034</v>
+        <v>0.1321629699616276</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03264268891312532</v>
+        <v>0.02382291457455162</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2180711678.329046</v>
+        <v>1777597068.323904</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07808935828019802</v>
+        <v>0.08574443761371092</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04610700058125717</v>
+        <v>0.03882795775267147</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2513519788.546672</v>
+        <v>2350433805.496072</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07645934145709142</v>
+        <v>0.0713374312290783</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03184198463897318</v>
+        <v>0.03724526384471821</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3596683629.756994</v>
+        <v>2962890726.303137</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1392232661366854</v>
+        <v>0.1788050483454647</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0338501607721902</v>
+        <v>0.02932730295333193</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2335723065.671267</v>
+        <v>2314141718.492421</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1575402956262215</v>
+        <v>0.1154218105992093</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03719666547094696</v>
+        <v>0.03354218759315607</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3761774279.05371</v>
+        <v>4553974584.554104</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07741764092857767</v>
+        <v>0.1102527025190689</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03408701161709859</v>
+        <v>0.02380409024447836</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1700569270.130207</v>
+        <v>1770434368.371382</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1865420075596333</v>
+        <v>0.1512292422075853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0295821224663234</v>
+        <v>0.03143357879696019</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4748431871.704309</v>
+        <v>3535433437.67817</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1316526307334526</v>
+        <v>0.1010732594170545</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03462351177188499</v>
+        <v>0.04759428430981142</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1199248625.303118</v>
+        <v>1486893627.659337</v>
       </c>
       <c r="F79" t="n">
-        <v>0.140807747898499</v>
+        <v>0.1264789019958379</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02869301548381043</v>
+        <v>0.03235727045773467</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3717729011.678579</v>
+        <v>4436974428.606881</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07418967164162293</v>
+        <v>0.1094648701870459</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03493507892728968</v>
+        <v>0.0365100665985296</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5040029206.492602</v>
+        <v>4833656198.352844</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1010351520527262</v>
+        <v>0.1051664334904219</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03074661887522915</v>
+        <v>0.0215279586866346</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5234579354.381144</v>
+        <v>4744022673.745355</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1611042975508216</v>
+        <v>0.1919484115376375</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01778453872673411</v>
+        <v>0.02231481505873142</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1686576367.339552</v>
+        <v>2082693099.684585</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09558221201944445</v>
+        <v>0.1354423322821376</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03042825645195452</v>
+        <v>0.04100561243601371</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1619709118.900192</v>
+        <v>2357205082.523559</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026958663891614</v>
+        <v>0.1055307646671973</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04219122309050361</v>
+        <v>0.03177748704956454</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3301151969.041736</v>
+        <v>3125180692.163329</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1780524679667098</v>
+        <v>0.1436747994933586</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04229800006697904</v>
+        <v>0.03501769740994155</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2356335426.53296</v>
+        <v>2510052455.302639</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1056903680265987</v>
+        <v>0.150368135949674</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0253518320318786</v>
+        <v>0.02352547583814218</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1273993963.012161</v>
+        <v>1396916276.5059</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830668315308693</v>
+        <v>0.1894056411277462</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03386842022877797</v>
+        <v>0.04420611355211952</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2275706619.443204</v>
+        <v>2881519420.062515</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1688424225496808</v>
+        <v>0.1684199497197959</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03909633809199102</v>
+        <v>0.02633163016161448</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2655374525.568238</v>
+        <v>2980286523.845057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1018342786206703</v>
+        <v>0.106164528592435</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02703548340801418</v>
+        <v>0.03710435423289999</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1794932589.068743</v>
+        <v>1916404907.983727</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1289308922205677</v>
+        <v>0.104804035039262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05125233204461726</v>
+        <v>0.03912657093624972</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1639529693.674107</v>
+        <v>1497575102.58706</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1923057254520912</v>
+        <v>0.1664696051958633</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04034640517456942</v>
+        <v>0.04922385505989478</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2973900009.553984</v>
+        <v>2206309010.241239</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08600931829424055</v>
+        <v>0.07617074144525757</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03585673172916481</v>
+        <v>0.04487992544336247</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3080444935.748745</v>
+        <v>3729836945.388246</v>
       </c>
       <c r="F93" t="n">
-        <v>0.128274809814612</v>
+        <v>0.1096623069174678</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03984325673204264</v>
+        <v>0.03365739180272509</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1696110504.346373</v>
+        <v>2365990080.23016</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1179195689892316</v>
+        <v>0.1460050001071024</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02825609708519792</v>
+        <v>0.03568088959672366</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2546254072.110052</v>
+        <v>2784792273.075165</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1120168556922766</v>
+        <v>0.1117438067418773</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03492644147327831</v>
+        <v>0.03845364911173314</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1686404490.490328</v>
+        <v>1495580748.404854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1340261515934485</v>
+        <v>0.1244713725364464</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02870961543329751</v>
+        <v>0.03578334208598798</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3571874935.924161</v>
+        <v>3462931379.635802</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1600954243406221</v>
+        <v>0.150324548117085</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02083185445738549</v>
+        <v>0.02501656128737007</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3266094734.684939</v>
+        <v>3498930264.992101</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209154786632099</v>
+        <v>0.108378174751485</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02963602100007268</v>
+        <v>0.03228344864577485</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2699560353.543777</v>
+        <v>2740414561.222474</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1040189920927944</v>
+        <v>0.113894862189414</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02241936027452801</v>
+        <v>0.0287125576424167</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4267590508.190721</v>
+        <v>3925468804.648854</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1496806426234012</v>
+        <v>0.12954177560494</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02197232832266203</v>
+        <v>0.01811002203658789</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2379166450.686785</v>
+        <v>2297204036.862499</v>
       </c>
       <c r="F101" t="n">
-        <v>0.202467010520533</v>
+        <v>0.1706875459452896</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04386867397063911</v>
+        <v>0.04412444122232988</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_494.xlsx
+++ b/output/fit_clients/fit_round_494.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1868174503.184905</v>
+        <v>1692573876.085284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07645577416395419</v>
+        <v>0.09573491067606615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03519867529032986</v>
+        <v>0.03821423933204568</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2640587041.352948</v>
+        <v>2346642327.956466</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1758477583944245</v>
+        <v>0.1327506067823537</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03384988416956138</v>
+        <v>0.03362641049200227</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4040697488.691877</v>
+        <v>4283746141.501216</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1302894198196741</v>
+        <v>0.1155542638303233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03408844609584152</v>
+        <v>0.03718032026901834</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>249</v>
+      </c>
+      <c r="J4" t="n">
+        <v>493</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.77877816817973</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4262020259.942777</v>
+        <v>3994919249.429962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07852383286724274</v>
+        <v>0.07971660541397695</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03399966459335462</v>
+        <v>0.04588212501974887</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>209</v>
+      </c>
+      <c r="J5" t="n">
+        <v>494</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2687348885.407771</v>
+        <v>2088093472.095007</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1249631135412888</v>
+        <v>0.1483419167602875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05409800593943542</v>
+        <v>0.04741913467733919</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2687709631.482421</v>
+        <v>2251859701.510492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09255809931376495</v>
+        <v>0.08652254360228961</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04912234518628733</v>
+        <v>0.04109906825483663</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2781810557.627989</v>
+        <v>3988026910.811523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2144102806507635</v>
+        <v>0.1979638411712176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03117374619013907</v>
+        <v>0.03339948336820923</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>141</v>
+      </c>
+      <c r="J8" t="n">
+        <v>494</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1764937648.366426</v>
+        <v>1594502510.680024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1440421234933286</v>
+        <v>0.1334851560841153</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03508238418385177</v>
+        <v>0.02295125428962701</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5109274163.061163</v>
+        <v>5543663981.185118</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164040509147491</v>
+        <v>0.1565950711080237</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04835931136093177</v>
+        <v>0.03474379540852422</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>373</v>
+      </c>
+      <c r="J10" t="n">
+        <v>493</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24.45622427188806</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3988109650.417185</v>
+        <v>3938593506.208136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1571675878138861</v>
+        <v>0.1874678167649334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03361263395769121</v>
+        <v>0.03756593039365909</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>494</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3046307792.498769</v>
+        <v>2745082144.776978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1650269974473936</v>
+        <v>0.1309919934127015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04880881266694766</v>
+        <v>0.04592897853316751</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3366240059.49536</v>
+        <v>3359336106.227225</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06479077102252782</v>
+        <v>0.06552497662646425</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0250299600613183</v>
+        <v>0.02836838127310437</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>255</v>
+      </c>
+      <c r="J13" t="n">
+        <v>492</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3779576799.819431</v>
+        <v>3136058931.824185</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1686691693962172</v>
+        <v>0.1521767254272879</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03733802008820438</v>
+        <v>0.03480087404252905</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1449738617.001148</v>
+        <v>1821101802.955055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08366936744514118</v>
+        <v>0.08837447044596504</v>
       </c>
       <c r="G15" t="n">
-        <v>0.031932597560632</v>
+        <v>0.03125777668839567</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2854173991.764648</v>
+        <v>2806242335.614837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08142202821068185</v>
+        <v>0.07718627982313178</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03427688708833779</v>
+        <v>0.04659946075105321</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4561544882.045294</v>
+        <v>4612106798.906749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1657401790329409</v>
+        <v>0.1491615510071131</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04628401638585389</v>
+        <v>0.04559447491092055</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>241</v>
+      </c>
+      <c r="J17" t="n">
+        <v>493</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.99399598275688</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2969674343.338131</v>
+        <v>2663084492.799494</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1824657651871725</v>
+        <v>0.140833810594074</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03366675135811828</v>
+        <v>0.02711439294129568</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>132</v>
+      </c>
+      <c r="J18" t="n">
+        <v>493</v>
+      </c>
+      <c r="K18" t="n">
+        <v>18.43995542993885</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>913311599.1331626</v>
+        <v>1316599281.232795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1689350995328607</v>
+        <v>0.1155545676814517</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02456546014409423</v>
+        <v>0.02275947969917994</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1689774941.597565</v>
+        <v>2153937919.328507</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1427426564712646</v>
+        <v>0.1368747585330558</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02030570997799715</v>
+        <v>0.01946965829834539</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2292350366.111938</v>
+        <v>1777300292.625791</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06910604751788339</v>
+        <v>0.09033079512168177</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04466205514302596</v>
+        <v>0.04052620846189599</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2716496716.444253</v>
+        <v>2847995839.524107</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448107920150849</v>
+        <v>0.09227666047835889</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05340981212213328</v>
+        <v>0.05658025205162883</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>493</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19.26744501520962</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1279805283.546701</v>
+        <v>1162198566.76032</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1684481656982337</v>
+        <v>0.154583581770459</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03771721234924519</v>
+        <v>0.04888229964908836</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3709222319.32885</v>
+        <v>3053859779.741261</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09160114255733565</v>
+        <v>0.1017486118912221</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03306015444396783</v>
+        <v>0.03241949796506139</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>156</v>
+      </c>
+      <c r="J24" t="n">
+        <v>493</v>
+      </c>
+      <c r="K24" t="n">
+        <v>20.38772368888431</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1466761176.975471</v>
+        <v>1128303094.154581</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09307182286234766</v>
+        <v>0.09243345122677527</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03087008481435972</v>
+        <v>0.02890086489006726</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1232888521.382256</v>
+        <v>1176311833.240603</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08688503791187677</v>
+        <v>0.115186703808963</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02922426446447188</v>
+        <v>0.02799791104417039</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4294267214.436106</v>
+        <v>3766859198.237988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1250252519905926</v>
+        <v>0.1246096115803221</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02019087209424986</v>
+        <v>0.01889243775367177</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>220</v>
+      </c>
+      <c r="J27" t="n">
+        <v>494</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3400422223.59095</v>
+        <v>2751320930.446558</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09797593096133544</v>
+        <v>0.1087097867219051</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04555386073845941</v>
+        <v>0.04524967890714048</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4721616662.719525</v>
+        <v>3887022454.857488</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1477131341631589</v>
+        <v>0.1189318805866894</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03652159045599203</v>
+        <v>0.03618666230410186</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>388</v>
+      </c>
+      <c r="J29" t="n">
+        <v>493</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22.75859887195431</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2349257351.063033</v>
+        <v>2103566320.394973</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1133127591841747</v>
+        <v>0.1389077504209139</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0268525663257435</v>
+        <v>0.03503629213442929</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1414901224.645457</v>
+        <v>1165032444.715752</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1049166687966504</v>
+        <v>0.0873194210273642</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04654786612873266</v>
+        <v>0.04895340971252321</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1545785582.635917</v>
+        <v>1662702441.268405</v>
       </c>
       <c r="F32" t="n">
-        <v>0.115353502517326</v>
+        <v>0.1146099313002951</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02526710481755964</v>
+        <v>0.03597510490923523</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2599929724.398638</v>
+        <v>3004055217.784765</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1624334099322667</v>
+        <v>0.1439053432213242</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03911596860800696</v>
+        <v>0.03857438818195772</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>970818799.0727572</v>
+        <v>1344143481.832064</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0928510206711244</v>
+        <v>0.1011974561749202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02706219262015878</v>
+        <v>0.02368782984623675</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1077871397.619511</v>
+        <v>1066876567.571673</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08326646484796527</v>
+        <v>0.08007888660962781</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04249748021889436</v>
+        <v>0.03987283169975311</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3137786365.499008</v>
+        <v>2636331983.851982</v>
       </c>
       <c r="F36" t="n">
-        <v>0.128991750445949</v>
+        <v>0.1128434206441292</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02771793093140494</v>
+        <v>0.02597753337765109</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2364183789.069761</v>
+        <v>1845531979.481757</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09359246917287217</v>
+        <v>0.1101242020277835</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04201795979594589</v>
+        <v>0.03203589810543774</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1639381195.335946</v>
+        <v>1468979014.117689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09024709615499057</v>
+        <v>0.1031755381298741</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03316773182749031</v>
+        <v>0.03794413415373601</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1597500561.399454</v>
+        <v>1545279047.791872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1286836978446752</v>
+        <v>0.173402915543577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03143712019988001</v>
+        <v>0.02897476591762321</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1335290916.933366</v>
+        <v>1435224113.644066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1223353802172382</v>
+        <v>0.1155181903299155</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05366926288992568</v>
+        <v>0.04192239215321644</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2232634105.231227</v>
+        <v>2250769095.720481</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1514964182172322</v>
+        <v>0.1029748431373617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02976430219291836</v>
+        <v>0.04267148365906891</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2662924571.893791</v>
+        <v>3490890331.681776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08403082575599777</v>
+        <v>0.09214459649759273</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04573396415558981</v>
+        <v>0.03976432593112769</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2871064475.115889</v>
+        <v>2102952527.798692</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1737252175560969</v>
+        <v>0.1370200397165134</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01661678099638937</v>
+        <v>0.02256928753204311</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1723168865.735358</v>
+        <v>2282977934.505418</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0783632439268475</v>
+        <v>0.08302835700370781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03543670594474896</v>
+        <v>0.02535524430055945</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2515064170.096646</v>
+        <v>2115379094.333905</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1565725655953291</v>
+        <v>0.1305498833800947</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05437711947301192</v>
+        <v>0.04641442533862451</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4877565914.118641</v>
+        <v>3475835596.648703</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1286627195190638</v>
+        <v>0.1273450274511987</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04695707600987714</v>
+        <v>0.04456429053866503</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>290</v>
+      </c>
+      <c r="J46" t="n">
+        <v>492</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3370049625.370131</v>
+        <v>4605308718.369094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1815212828042603</v>
+        <v>0.1863547714422646</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03892510375865162</v>
+        <v>0.05346258967788492</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>224</v>
+      </c>
+      <c r="J47" t="n">
+        <v>494</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.49405399757078</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4004552137.721694</v>
+        <v>3679153313.863694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1027959838964527</v>
+        <v>0.1076932834273965</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03489594304582778</v>
+        <v>0.03484473312344426</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>247</v>
+      </c>
+      <c r="J48" t="n">
+        <v>494</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1958203272.832501</v>
+        <v>1291123524.667975</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1769527686151064</v>
+        <v>0.1591928411677997</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03862013212928944</v>
+        <v>0.03510449838585693</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3213353311.586162</v>
+        <v>4206765933.533862</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1594447366231548</v>
+        <v>0.1481794481825389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05167207408395275</v>
+        <v>0.04903414895667348</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>178</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1156817499.946627</v>
+        <v>1053587047.003737</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1696016995076468</v>
+        <v>0.1483906492078938</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04455831450693796</v>
+        <v>0.04169766084453223</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3843092604.229971</v>
+        <v>3659436576.788305</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1269219309367811</v>
+        <v>0.1201494630775413</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05246650278385361</v>
+        <v>0.05969437461440094</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>275</v>
+      </c>
+      <c r="J52" t="n">
+        <v>492</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3275741083.145563</v>
+        <v>3722369247.96564</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1608015142627101</v>
+        <v>0.1358266526594505</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02784840715861534</v>
+        <v>0.03486525375516256</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>494</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>2998102166.36808</v>
+        <v>3277629352.642512</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1276255379377543</v>
+        <v>0.1530293601043167</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04027820325986411</v>
+        <v>0.05147901305870037</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>260</v>
+      </c>
+      <c r="J54" t="n">
+        <v>493</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.57101362553444</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3049982261.307532</v>
+        <v>4057364278.453689</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2065638102392553</v>
+        <v>0.1965090837411002</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02682930150111309</v>
+        <v>0.021440839255894</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>244</v>
+      </c>
+      <c r="J55" t="n">
+        <v>493</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26.97460742186394</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1757793477.999784</v>
+        <v>1500264497.941836</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1076584718361072</v>
+        <v>0.1517370131894678</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03885663494501139</v>
+        <v>0.05482323102037068</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3568581567.128313</v>
+        <v>3195161244.445529</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1601517228653311</v>
+        <v>0.1167020752794717</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0261837557510069</v>
+        <v>0.02614598026809869</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1719225917.094469</v>
+        <v>1381679034.886153</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2032516833296017</v>
+        <v>0.1346797810484334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03102357985202645</v>
+        <v>0.03483293964356493</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4904304102.155173</v>
+        <v>4408317050.315294</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08032839504870815</v>
+        <v>0.1018395411150688</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03826424519119495</v>
+        <v>0.03352864739168778</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>242</v>
+      </c>
+      <c r="J59" t="n">
+        <v>494</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2352422114.853168</v>
+        <v>3486682786.2748</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1715681080570847</v>
+        <v>0.1816822278627069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03022262524432892</v>
+        <v>0.02662282651303469</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3098363278.217077</v>
+        <v>2561135504.975912</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1118765140167756</v>
+        <v>0.1564412198372367</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0317693053534698</v>
+        <v>0.02986989291192474</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2071656596.032894</v>
+        <v>2094329069.089808</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1724299744780084</v>
+        <v>0.1748938077127025</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03673162991832045</v>
+        <v>0.03066974179079333</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4324033901.398249</v>
+        <v>4354872013.424968</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09316503233436334</v>
+        <v>0.08260601154865981</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03128176945307411</v>
+        <v>0.04445290413972259</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>246</v>
+      </c>
+      <c r="J63" t="n">
+        <v>494</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4081902719.376903</v>
+        <v>3865362063.030319</v>
       </c>
       <c r="F64" t="n">
-        <v>0.15984758814632</v>
+        <v>0.1555414668798022</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0301191075246132</v>
+        <v>0.02320477656764034</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>246</v>
+      </c>
+      <c r="J64" t="n">
+        <v>493</v>
+      </c>
+      <c r="K64" t="n">
+        <v>24.68009360085871</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4725468695.382762</v>
+        <v>4018757588.958714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1723212999722316</v>
+        <v>0.1698016834754718</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02461042547591067</v>
+        <v>0.02216011734921177</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>345</v>
+      </c>
+      <c r="J65" t="n">
+        <v>493</v>
+      </c>
+      <c r="K65" t="n">
+        <v>24.49467363638228</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3949878822.302275</v>
+        <v>4393162323.099574</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1191469720399306</v>
+        <v>0.1627080240987858</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0424865006874727</v>
+        <v>0.04198087304919717</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>245</v>
+      </c>
+      <c r="J66" t="n">
+        <v>493</v>
+      </c>
+      <c r="K66" t="n">
+        <v>26.70128903040631</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2796,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2938104855.835102</v>
+        <v>3203786593.744461</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07896895275733722</v>
+        <v>0.08113432869039504</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05086244366487833</v>
+        <v>0.03416259374255191</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>494</v>
+      </c>
+      <c r="K67" t="n">
+        <v>56.81739722351853</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4947486768.61263</v>
+        <v>5273921106.576484</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369015868401896</v>
+        <v>0.1405612314849619</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04624705804114123</v>
+        <v>0.05092020131502175</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>268</v>
+      </c>
+      <c r="J68" t="n">
+        <v>493</v>
+      </c>
+      <c r="K68" t="n">
+        <v>26.92125808278577</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1608709649.800205</v>
+        <v>2138512340.377951</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1426642393082723</v>
+        <v>0.1436592160705952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04397310615113626</v>
+        <v>0.05915139152979676</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2540137301.916525</v>
+        <v>2409134113.253994</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09292866602252216</v>
+        <v>0.08274550536800675</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03945436956130479</v>
+        <v>0.04160015815809719</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.51644593105759</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5117688728.09798</v>
+        <v>3992491782.79119</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1321629699616276</v>
+        <v>0.1605341668392021</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02382291457455162</v>
+        <v>0.0301426295932388</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>331</v>
+      </c>
+      <c r="J71" t="n">
+        <v>494</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1777597068.323904</v>
+        <v>2135576421.198966</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08574443761371092</v>
+        <v>0.09198505832205611</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03882795775267147</v>
+        <v>0.0325379243934989</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2350433805.496072</v>
+        <v>2739750353.84473</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0713374312290783</v>
+        <v>0.06819028118626212</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03724526384471821</v>
+        <v>0.03812518189034277</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2962890726.303137</v>
+        <v>3719423801.909163</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1788050483454647</v>
+        <v>0.1318437181745366</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02932730295333193</v>
+        <v>0.02369911560511104</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>494</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2314141718.492421</v>
+        <v>2427700449.624781</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1154218105992093</v>
+        <v>0.1360178323751014</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03354218759315607</v>
+        <v>0.02320997865780125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4553974584.554104</v>
+        <v>3564250059.800706</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102527025190689</v>
+        <v>0.122014336556539</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02380409024447836</v>
+        <v>0.03334063492508799</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>237</v>
+      </c>
+      <c r="J76" t="n">
+        <v>492</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1770434368.371382</v>
+        <v>1581198459.602649</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1512292422075853</v>
+        <v>0.1373682826550289</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03143357879696019</v>
+        <v>0.02224730368596462</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3535433437.67817</v>
+        <v>3625001287.536792</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1010732594170545</v>
+        <v>0.08556465283683837</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04759428430981142</v>
+        <v>0.04515478012969233</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>244</v>
+      </c>
+      <c r="J78" t="n">
+        <v>492</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1486893627.659337</v>
+        <v>1620658170.272448</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1264789019958379</v>
+        <v>0.1773475344977097</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03235727045773467</v>
+        <v>0.02693349586978219</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4436974428.606881</v>
+        <v>4660627741.649373</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1094648701870459</v>
+        <v>0.1054325764988205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0365100665985296</v>
+        <v>0.03275723554398872</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>241</v>
+      </c>
+      <c r="J80" t="n">
+        <v>494</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4833656198.352844</v>
+        <v>4648523587.533144</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1051664334904219</v>
+        <v>0.1342444447661017</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0215279586866346</v>
+        <v>0.02842570833783765</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>231</v>
+      </c>
+      <c r="J81" t="n">
+        <v>494</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4744022673.745355</v>
+        <v>4929101548.778214</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1919484115376375</v>
+        <v>0.1753736005931217</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02231481505873142</v>
+        <v>0.02851261493346021</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>323</v>
+      </c>
+      <c r="J82" t="n">
+        <v>494</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.14424249098772</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2082693099.684585</v>
+        <v>1905521136.085993</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354423322821376</v>
+        <v>0.1041958165519035</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04100561243601371</v>
+        <v>0.04137886883492167</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2357205082.523559</v>
+        <v>1620046224.929328</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1055307646671973</v>
+        <v>0.09195989607508197</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03177748704956454</v>
+        <v>0.05016585939647177</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3125180692.163329</v>
+        <v>2403349955.839956</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1436747994933586</v>
+        <v>0.1449587215133818</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03501769740994155</v>
+        <v>0.05578643684714476</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2510052455.302639</v>
+        <v>2469958446.447815</v>
       </c>
       <c r="F86" t="n">
-        <v>0.150368135949674</v>
+        <v>0.1396405646944291</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02352547583814218</v>
+        <v>0.02690356902724766</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1396916276.5059</v>
+        <v>1112322004.533823</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1894056411277462</v>
+        <v>0.1769982676533138</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04420611355211952</v>
+        <v>0.03089092918880505</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2881519420.062515</v>
+        <v>2502850284.671359</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684199497197959</v>
+        <v>0.1092610192925259</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02633163016161448</v>
+        <v>0.03958575539004344</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2980286523.845057</v>
+        <v>3485988340.333495</v>
       </c>
       <c r="F89" t="n">
-        <v>0.106164528592435</v>
+        <v>0.1220049245955882</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03710435423289999</v>
+        <v>0.02700461065001646</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>494</v>
+      </c>
+      <c r="K89" t="n">
+        <v>54.93160033837754</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916404907.983727</v>
+        <v>1740444080.378001</v>
       </c>
       <c r="F90" t="n">
-        <v>0.104804035039262</v>
+        <v>0.1164861273229043</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03912657093624972</v>
+        <v>0.05117006186891963</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1497575102.58706</v>
+        <v>1406315024.616023</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1664696051958633</v>
+        <v>0.1187604508075924</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04922385505989478</v>
+        <v>0.04259606072307512</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2206309010.241239</v>
+        <v>2827529787.67737</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07617074144525757</v>
+        <v>0.06646178620492159</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04487992544336247</v>
+        <v>0.04351834002705979</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3729836945.388246</v>
+        <v>4908384545.437756</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1096623069174678</v>
+        <v>0.1216065343053083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03365739180272509</v>
+        <v>0.04991953780093741</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>237</v>
+      </c>
+      <c r="J93" t="n">
+        <v>494</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.69634437510341</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2365990080.23016</v>
+        <v>1590471844.969446</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1460050001071024</v>
+        <v>0.1396663395871284</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03568088959672366</v>
+        <v>0.03926656028456639</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2784792273.075165</v>
+        <v>3110366362.142817</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1117438067418773</v>
+        <v>0.1219475212584094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03845364911173314</v>
+        <v>0.04074909631768165</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1495580748.404854</v>
+        <v>2199395122.760854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1244713725364464</v>
+        <v>0.08598622445976478</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03578334208598798</v>
+        <v>0.03148735772539105</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3462931379.635802</v>
+        <v>5154332111.902009</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150324548117085</v>
+        <v>0.1256531732902153</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02501656128737007</v>
+        <v>0.02686843186770067</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>257</v>
+      </c>
+      <c r="J97" t="n">
+        <v>493</v>
+      </c>
+      <c r="K97" t="n">
+        <v>27.66315424701475</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3498930264.992101</v>
+        <v>3819110760.003439</v>
       </c>
       <c r="F98" t="n">
-        <v>0.108378174751485</v>
+        <v>0.1052341734857064</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03228344864577485</v>
+        <v>0.02131229332889526</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>127</v>
+      </c>
+      <c r="J98" t="n">
+        <v>494</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2740414561.222474</v>
+        <v>3191678901.797737</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113894862189414</v>
+        <v>0.1300325237530342</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0287125576424167</v>
+        <v>0.0310755721246629</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3925468804.648854</v>
+        <v>4296107504.367102</v>
       </c>
       <c r="F100" t="n">
-        <v>0.12954177560494</v>
+        <v>0.1157312296353993</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01811002203658789</v>
+        <v>0.02106318136215965</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>230</v>
+      </c>
+      <c r="J100" t="n">
+        <v>494</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2297204036.862499</v>
+        <v>2714138640.162199</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1706875459452896</v>
+        <v>0.2098912578646645</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04412444122232988</v>
+        <v>0.05463900459403311</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
